--- a/Data/g4.1.xlsx
+++ b/Data/g4.1.xlsx
@@ -1,30 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473C15E-8EF3-4D45-A78D-166135BAE4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="11">
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Valor corrigido</t>
+  </si>
+  <si>
+    <t>Variação anual</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Custos das operações industriais</t>
+  </si>
+  <si>
+    <t>Valor bruto da produção industrial</t>
+  </si>
+  <si>
+    <t>Valor da transformação industrial</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,22 +90,28 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +149,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +183,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +218,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,117 +394,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87FFD2-BA0E-4D64-9B34-4A98B2473FF8}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Região</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Valor corrigido</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Variação anual</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Índice</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41274</v>
       </c>
       <c r="D2">
         <v>4202148</v>
       </c>
       <c r="E2">
-        <v>7138820.1</v>
+        <v>7138820.0999999996</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41274</v>
       </c>
       <c r="D3">
         <v>7757942</v>
       </c>
       <c r="E3">
-        <v>13179581.55</v>
+        <v>13179581.550000001</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41274</v>
       </c>
       <c r="D4">
         <v>3555794</v>
@@ -472,21 +489,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41639</v>
       </c>
       <c r="D5">
         <v>4601860</v>
@@ -501,27 +512,21 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41639</v>
       </c>
       <c r="D6">
         <v>9262884</v>
       </c>
       <c r="E6">
-        <v>14858040.88</v>
+        <v>14858040.880000001</v>
       </c>
       <c r="F6">
         <v>12.74</v>
@@ -530,27 +535,21 @@
         <v>112.74</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41639</v>
       </c>
       <c r="D7">
         <v>4661024</v>
       </c>
       <c r="E7">
-        <v>7476471.17</v>
+        <v>7476471.1699999999</v>
       </c>
       <c r="F7">
         <v>23.77</v>
@@ -559,27 +558,21 @@
         <v>123.77</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42004</v>
       </c>
       <c r="D8">
         <v>5192685</v>
       </c>
       <c r="E8">
-        <v>7827718.17</v>
+        <v>7827718.1699999999</v>
       </c>
       <c r="F8">
         <v>6.04</v>
@@ -588,27 +581,21 @@
         <v>109.65</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42004</v>
       </c>
       <c r="D9">
         <v>9784378</v>
       </c>
       <c r="E9">
-        <v>14749470.36</v>
+        <v>14749470.359999999</v>
       </c>
       <c r="F9">
         <v>-0.73</v>
@@ -617,27 +604,21 @@
         <v>111.91</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42004</v>
       </c>
       <c r="D10">
         <v>4591693</v>
       </c>
       <c r="E10">
-        <v>6921752.19</v>
+        <v>6921752.1900000004</v>
       </c>
       <c r="F10">
         <v>-7.42</v>
@@ -646,27 +627,21 @@
         <v>114.58</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42369</v>
       </c>
       <c r="D11">
         <v>5696926</v>
       </c>
       <c r="E11">
-        <v>7759647.42</v>
+        <v>7759647.4199999999</v>
       </c>
       <c r="F11">
         <v>-0.87</v>
@@ -675,21 +650,15 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42369</v>
       </c>
       <c r="D12">
         <v>10360416</v>
@@ -704,27 +673,21 @@
         <v>107.07</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42369</v>
       </c>
       <c r="D13">
         <v>4663491</v>
       </c>
       <c r="E13">
-        <v>6352030.18</v>
+        <v>6352030.1799999997</v>
       </c>
       <c r="F13">
         <v>-8.23</v>
@@ -733,27 +696,21 @@
         <v>105.15</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42735</v>
       </c>
       <c r="D14">
         <v>5271991</v>
       </c>
       <c r="E14">
-        <v>6756034.88</v>
+        <v>6756034.8799999999</v>
       </c>
       <c r="F14">
         <v>-12.93</v>
@@ -762,27 +719,21 @@
         <v>94.64</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42735</v>
       </c>
       <c r="D15">
         <v>9436365</v>
       </c>
       <c r="E15">
-        <v>12092663.12</v>
+        <v>12092663.119999999</v>
       </c>
       <c r="F15">
         <v>-14.31</v>
@@ -791,27 +742,21 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42735</v>
       </c>
       <c r="D16">
         <v>4164374</v>
       </c>
       <c r="E16">
-        <v>5336628.23</v>
+        <v>5336628.2300000004</v>
       </c>
       <c r="F16">
         <v>-15.99</v>
@@ -820,21 +765,15 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43100</v>
       </c>
       <c r="D17">
         <v>5514684</v>
@@ -849,21 +788,15 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43100</v>
       </c>
       <c r="D18">
         <v>9776891</v>
@@ -878,21 +811,15 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43100</v>
       </c>
       <c r="D19">
         <v>4262207</v>
@@ -901,27 +828,21 @@
         <v>5305621.79</v>
       </c>
       <c r="F19">
-        <v>-0.58</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G19">
         <v>87.83</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43465</v>
       </c>
       <c r="D20">
         <v>5813327</v>
@@ -933,30 +854,24 @@
         <v>1.61</v>
       </c>
       <c r="G20">
-        <v>97.70999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
+        <v>97.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43465</v>
       </c>
       <c r="D21">
         <v>10810918</v>
       </c>
       <c r="E21">
-        <v>12971634.88</v>
+        <v>12971634.880000001</v>
       </c>
       <c r="F21">
         <v>6.58</v>
@@ -965,27 +880,21 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43465</v>
       </c>
       <c r="D22">
         <v>4997596</v>
       </c>
       <c r="E22">
-        <v>5996437.18</v>
+        <v>5996437.1799999997</v>
       </c>
       <c r="F22">
         <v>13.02</v>
@@ -994,50 +903,38 @@
         <v>99.27</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43830</v>
       </c>
       <c r="D23">
         <v>5194670</v>
       </c>
       <c r="E23">
-        <v>5975581.63</v>
+        <v>5975581.6299999999</v>
       </c>
       <c r="F23">
         <v>-14.33</v>
       </c>
       <c r="G23">
-        <v>83.70999999999999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43830</v>
       </c>
       <c r="D24">
         <v>10158013</v>
@@ -1052,27 +949,21 @@
         <v>88.66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43830</v>
       </c>
       <c r="D25">
         <v>4963344</v>
       </c>
       <c r="E25">
-        <v>5709480.53</v>
+        <v>5709480.5300000003</v>
       </c>
       <c r="F25">
         <v>-4.79</v>
@@ -1081,27 +972,21 @@
         <v>94.52</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44196</v>
       </c>
       <c r="D26">
         <v>6079312</v>
       </c>
       <c r="E26">
-        <v>6690950.53</v>
+        <v>6690950.5300000003</v>
       </c>
       <c r="F26">
         <v>11.97</v>
@@ -1110,21 +995,15 @@
         <v>93.73</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44196</v>
       </c>
       <c r="D27">
         <v>11006530</v>
@@ -1139,50 +1018,38 @@
         <v>91.91</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44196</v>
       </c>
       <c r="D28">
         <v>4927218</v>
       </c>
       <c r="E28">
-        <v>5422944.55</v>
+        <v>5422944.5499999998</v>
       </c>
       <c r="F28">
-        <v>-5.02</v>
+        <v>-5.0199999999999996</v>
       </c>
       <c r="G28">
         <v>89.77</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Custos das operações industriais</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44561</v>
       </c>
       <c r="D29">
         <v>8410304</v>
@@ -1197,21 +1064,15 @@
         <v>117.81</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Valor bruto da produção industrial</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44561</v>
       </c>
       <c r="D30">
         <v>13979460</v>
@@ -1226,21 +1087,15 @@
         <v>106.07</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Valor da transformação industrial</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44561</v>
       </c>
       <c r="D31">
         <v>5569156</v>
@@ -1256,6 +1111,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Data/g4.1.xlsx
+++ b/Data/g4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473C15E-8EF3-4D45-A78D-166135BAE4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D39B2F-1754-45B7-AB48-9DFBCB19A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="11">
   <si>
     <t>Região</t>
   </si>
@@ -46,19 +46,22 @@
     <t>Sergipe</t>
   </si>
   <si>
-    <t>Custos das operações industriais</t>
+    <t>VBP</t>
   </si>
   <si>
-    <t>Valor bruto da produção industrial</t>
+    <t>Custo das Operações</t>
   </si>
   <si>
-    <t>Valor da transformação industrial</t>
+    <t>Valor da Transformação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,7 +93,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,11 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87FFD2-BA0E-4D64-9B34-4A98B2473FF8}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -436,16 +437,16 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>41274</v>
+      <c r="C2">
+        <v>2010</v>
       </c>
       <c r="D2">
-        <v>4202148</v>
+        <v>7055727</v>
       </c>
       <c r="E2">
-        <v>7138820.0999999996</v>
-      </c>
-      <c r="G2">
+        <v>17775461.253486309</v>
+      </c>
+      <c r="G2" s="1">
         <v>100</v>
       </c>
     </row>
@@ -454,19 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41274</v>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
       </c>
       <c r="D3">
-        <v>7757942</v>
+        <v>7226558</v>
       </c>
       <c r="E3">
-        <v>13179581.550000001</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
+        <v>17743810.535141584</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.17805849251039119</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99.821941507489612</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,19 +478,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>41274</v>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2012</v>
       </c>
       <c r="D4">
-        <v>3555794</v>
+        <v>7757942</v>
       </c>
       <c r="E4">
-        <v>6040761.46</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
+        <v>17756276.255209383</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.0253906527639742E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>99.892070320970362</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -496,20 +503,20 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>41639</v>
+      <c r="C5">
+        <v>2013</v>
       </c>
       <c r="D5">
-        <v>4601860</v>
+        <v>9262884</v>
       </c>
       <c r="E5">
-        <v>7381569.71</v>
-      </c>
-      <c r="F5">
-        <v>3.4</v>
-      </c>
-      <c r="G5">
-        <v>103.4</v>
+        <v>20059311.10090493</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.970258023665737</v>
+      </c>
+      <c r="G5" s="1">
+        <v>112.84832958678184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,22 +524,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>41639</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
       </c>
       <c r="D6">
-        <v>9262884</v>
+        <v>9784378</v>
       </c>
       <c r="E6">
-        <v>14858040.880000001</v>
-      </c>
-      <c r="F6">
-        <v>12.74</v>
-      </c>
-      <c r="G6">
-        <v>112.74</v>
+        <v>20284779.958959699</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1240109738593906</v>
+      </c>
+      <c r="G6" s="1">
+        <v>114.11675719515429</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,22 +547,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>41639</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
       </c>
       <c r="D7">
-        <v>4661024</v>
+        <v>10360416</v>
       </c>
       <c r="E7">
-        <v>7476471.1699999999</v>
-      </c>
-      <c r="F7">
-        <v>23.77</v>
-      </c>
-      <c r="G7">
-        <v>123.77</v>
+        <v>19627220.670276061</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-3.2416387558258819</v>
+      </c>
+      <c r="G7" s="1">
+        <v>110.41750416702445</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,20 +572,20 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>42004</v>
+      <c r="C8">
+        <v>2016</v>
       </c>
       <c r="D8">
-        <v>5192685</v>
+        <v>9436365</v>
       </c>
       <c r="E8">
-        <v>7827718.1699999999</v>
-      </c>
-      <c r="F8">
-        <v>6.04</v>
-      </c>
-      <c r="G8">
-        <v>109.65</v>
+        <v>17737390.312357932</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-9.6286193020702733</v>
+      </c>
+      <c r="G8" s="1">
+        <v>99.785823047934088</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,22 +593,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42004</v>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
       </c>
       <c r="D9">
-        <v>9784378</v>
+        <v>9776891</v>
       </c>
       <c r="E9">
-        <v>14749470.359999999</v>
-      </c>
-      <c r="F9">
-        <v>-0.73</v>
-      </c>
-      <c r="G9">
-        <v>111.91</v>
+        <v>17692896.494271651</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.25084760104355786</v>
+      </c>
+      <c r="G9" s="1">
+        <v>99.535512704636773</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,22 +616,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>42004</v>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
       </c>
       <c r="D10">
-        <v>4591693</v>
+        <v>10810918</v>
       </c>
       <c r="E10">
-        <v>6921752.1900000004</v>
-      </c>
-      <c r="F10">
-        <v>-7.42</v>
-      </c>
-      <c r="G10">
-        <v>114.58</v>
+        <v>17956033.167438801</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.4872447439702396</v>
+      </c>
+      <c r="G10" s="1">
+        <v>101.01584938572032</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,20 +641,20 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>42369</v>
+      <c r="C11">
+        <v>2019</v>
       </c>
       <c r="D11">
-        <v>5696926</v>
+        <v>10158013</v>
       </c>
       <c r="E11">
-        <v>7759647.4199999999</v>
-      </c>
-      <c r="F11">
-        <v>-0.87</v>
-      </c>
-      <c r="G11">
-        <v>108.7</v>
+        <v>16094790.894286696</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-10.365553771237479</v>
+      </c>
+      <c r="G11" s="1">
+        <v>90.54499720017121</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,22 +662,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>42369</v>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12">
-        <v>10360416</v>
+        <v>11006530</v>
       </c>
       <c r="E12">
-        <v>14111676.24</v>
-      </c>
-      <c r="F12">
-        <v>-4.32</v>
-      </c>
-      <c r="G12">
-        <v>107.07</v>
+        <v>14761848.394308995</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-8.2818255218889867</v>
+      </c>
+      <c r="G12" s="1">
+        <v>83.046218513253763</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,22 +685,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>42369</v>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
       </c>
       <c r="D13">
-        <v>4663491</v>
+        <v>13977278</v>
       </c>
       <c r="E13">
-        <v>6352030.1799999997</v>
-      </c>
-      <c r="F13">
-        <v>-8.23</v>
-      </c>
-      <c r="G13">
-        <v>105.15</v>
+        <v>14498364.562938228</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1.7848972861172707</v>
+      </c>
+      <c r="G13" s="1">
+        <v>81.56392881278768</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,20 +710,20 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1">
-        <v>42735</v>
+      <c r="C14">
+        <v>2022</v>
       </c>
       <c r="D14">
-        <v>5271991</v>
+        <v>17452034</v>
       </c>
       <c r="E14">
-        <v>6756034.8799999999</v>
-      </c>
-      <c r="F14">
-        <v>-12.93</v>
-      </c>
-      <c r="G14">
-        <v>94.64</v>
+        <v>17452034</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20.372431830084857</v>
+      </c>
+      <c r="G14" s="1">
+        <v>98.180484608111797</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,20 +733,18 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
-        <v>42735</v>
+      <c r="C15">
+        <v>2010</v>
       </c>
       <c r="D15">
-        <v>9436365</v>
+        <v>3596990</v>
       </c>
       <c r="E15">
-        <v>12092663.119999999</v>
-      </c>
-      <c r="F15">
-        <v>-14.31</v>
-      </c>
-      <c r="G15">
-        <v>91.75</v>
+        <v>9061880.706860926</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,22 +752,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42735</v>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
       </c>
       <c r="D16">
-        <v>4164374</v>
+        <v>3750287</v>
       </c>
       <c r="E16">
-        <v>5336628.2300000004</v>
-      </c>
-      <c r="F16">
-        <v>-15.99</v>
-      </c>
-      <c r="G16">
-        <v>88.34</v>
+        <v>9208309.4026789144</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.6158753414964311</v>
+      </c>
+      <c r="G16" s="1">
+        <v>101.61587534149643</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43100</v>
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2012</v>
       </c>
       <c r="D17">
-        <v>5514684</v>
+        <v>4202148</v>
       </c>
       <c r="E17">
-        <v>6864712.96</v>
-      </c>
-      <c r="F17">
-        <v>1.61</v>
-      </c>
-      <c r="G17">
-        <v>96.16</v>
+        <v>9617821.421360923</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.447200900556969</v>
+      </c>
+      <c r="G17" s="1">
+        <v>106.13493746479232</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,20 +800,20 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
-        <v>43100</v>
+      <c r="C18">
+        <v>2013</v>
       </c>
       <c r="D18">
-        <v>9776891</v>
+        <v>4601860</v>
       </c>
       <c r="E18">
-        <v>12170334.75</v>
-      </c>
-      <c r="F18">
-        <v>0.64</v>
-      </c>
-      <c r="G18">
-        <v>92.34</v>
+        <v>9965594.0183219798</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.6159186340127158</v>
+      </c>
+      <c r="G18" s="1">
+        <v>109.97269044577948</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,22 +821,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43100</v>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
       </c>
       <c r="D19">
-        <v>4262207</v>
+        <v>5192685</v>
       </c>
       <c r="E19">
-        <v>5305621.79</v>
-      </c>
-      <c r="F19">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="G19">
-        <v>87.83</v>
+        <v>10765372.374328816</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.0253957218849656</v>
+      </c>
+      <c r="G19" s="1">
+        <v>118.79843404005686</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,22 +844,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43465</v>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2015</v>
       </c>
       <c r="D20">
-        <v>5813327</v>
+        <v>5696926</v>
       </c>
       <c r="E20">
-        <v>6975203.71</v>
-      </c>
-      <c r="F20">
-        <v>1.61</v>
-      </c>
-      <c r="G20">
-        <v>97.71</v>
+        <v>10792503.287921363</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25202020561074789</v>
+      </c>
+      <c r="G20" s="1">
+        <v>119.09783009778697</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,20 +869,20 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1">
-        <v>43465</v>
+      <c r="C21">
+        <v>2016</v>
       </c>
       <c r="D21">
-        <v>10810918</v>
+        <v>5271991</v>
       </c>
       <c r="E21">
-        <v>12971634.880000001</v>
-      </c>
-      <c r="F21">
-        <v>6.58</v>
-      </c>
-      <c r="G21">
-        <v>98.42</v>
+        <v>9909680.4850425143</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-8.1799632515922145</v>
+      </c>
+      <c r="G21" s="1">
+        <v>109.35567136234427</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -885,22 +890,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43465</v>
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
       </c>
       <c r="D22">
-        <v>4997596</v>
+        <v>5514684</v>
       </c>
       <c r="E22">
-        <v>5996437.1799999997</v>
-      </c>
-      <c r="F22">
-        <v>13.02</v>
-      </c>
-      <c r="G22">
-        <v>99.27</v>
+        <v>9979730.0809240863</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.70688046892433132</v>
+      </c>
+      <c r="G22" s="1">
+        <v>110.12868524486576</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,22 +913,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43830</v>
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
       </c>
       <c r="D23">
-        <v>5194670</v>
+        <v>5813327</v>
       </c>
       <c r="E23">
-        <v>5975581.6299999999</v>
-      </c>
-      <c r="F23">
-        <v>-14.33</v>
-      </c>
-      <c r="G23">
-        <v>83.71</v>
+        <v>9655451.3155282009</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-3.2493741089824946</v>
+      </c>
+      <c r="G23" s="1">
+        <v>106.55019225995628</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,20 +938,20 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1">
-        <v>43830</v>
+      <c r="C24">
+        <v>2019</v>
       </c>
       <c r="D24">
-        <v>10158013</v>
+        <v>5194670</v>
       </c>
       <c r="E24">
-        <v>11685061.02</v>
-      </c>
-      <c r="F24">
-        <v>-9.92</v>
-      </c>
-      <c r="G24">
-        <v>88.66</v>
+        <v>8230657.6507456992</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-14.756365272031392</v>
+      </c>
+      <c r="G24" s="1">
+        <v>90.827256692025415</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,22 +959,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43830</v>
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
       </c>
       <c r="D25">
-        <v>4963344</v>
+        <v>6086011</v>
       </c>
       <c r="E25">
-        <v>5709480.5300000003</v>
-      </c>
-      <c r="F25">
-        <v>-4.79</v>
-      </c>
-      <c r="G25">
-        <v>94.52</v>
+        <v>8162497.3273226805</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-0.82812730543887492</v>
+      </c>
+      <c r="G25" s="1">
+        <v>90.075091378577696</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,22 +982,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44196</v>
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>2021</v>
       </c>
       <c r="D26">
-        <v>6079312</v>
+        <v>8435566</v>
       </c>
       <c r="E26">
-        <v>6690950.5300000003</v>
-      </c>
-      <c r="F26">
-        <v>11.97</v>
-      </c>
-      <c r="G26">
-        <v>93.73</v>
+        <v>8750052.1319477651</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7.1982235468345923</v>
+      </c>
+      <c r="G26" s="1">
+        <v>96.558897816023247</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,20 +1007,20 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
-        <v>44196</v>
+      <c r="C27">
+        <v>2022</v>
       </c>
       <c r="D27">
-        <v>11006530</v>
+        <v>10777990</v>
       </c>
       <c r="E27">
-        <v>12113895.08</v>
-      </c>
-      <c r="F27">
-        <v>3.67</v>
-      </c>
-      <c r="G27">
-        <v>91.91</v>
+        <v>10777990</v>
+      </c>
+      <c r="F27" s="1">
+        <v>23.176294694838752</v>
+      </c>
+      <c r="G27" s="1">
+        <v>118.93767252795301</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,20 +1030,18 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1">
-        <v>44196</v>
+      <c r="C28">
+        <v>2010</v>
       </c>
       <c r="D28">
-        <v>4927218</v>
+        <v>3458737</v>
       </c>
       <c r="E28">
-        <v>5422944.5499999998</v>
-      </c>
-      <c r="F28">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="G28">
-        <v>89.77</v>
+        <v>8713580.5466253832</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,22 +1049,22 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44561</v>
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2011</v>
       </c>
       <c r="D29">
-        <v>8410304</v>
+        <v>3476271</v>
       </c>
       <c r="E29">
-        <v>8410304</v>
-      </c>
-      <c r="F29">
-        <v>25.7</v>
-      </c>
-      <c r="G29">
-        <v>117.81</v>
+        <v>8535501.1324626692</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-2.0436996388549011</v>
+      </c>
+      <c r="G29" s="1">
+        <v>97.956300361145097</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,22 +1072,22 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44561</v>
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>2012</v>
       </c>
       <c r="D30">
-        <v>13979460</v>
+        <v>3555794</v>
       </c>
       <c r="E30">
-        <v>13979460</v>
-      </c>
-      <c r="F30">
-        <v>15.4</v>
-      </c>
-      <c r="G30">
-        <v>106.07</v>
+        <v>8138454.8338484596</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-4.6517045976848586</v>
+      </c>
+      <c r="G30" s="1">
+        <v>93.399662633523718</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,20 +1097,227 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
-        <v>44561</v>
+      <c r="C31">
+        <v>2013</v>
       </c>
       <c r="D31">
-        <v>5569156</v>
+        <v>4661024</v>
       </c>
       <c r="E31">
-        <v>5569156</v>
-      </c>
-      <c r="F31">
-        <v>2.7</v>
-      </c>
-      <c r="G31">
-        <v>92.19</v>
+        <v>10093717.082582952</v>
+      </c>
+      <c r="F31" s="1">
+        <v>24.024981260600065</v>
+      </c>
+      <c r="G31" s="1">
+        <v>115.83891407869147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2014</v>
+      </c>
+      <c r="D32">
+        <v>4591693</v>
+      </c>
+      <c r="E32">
+        <v>9519407.5846308805</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-5.6897720953865694</v>
+      </c>
+      <c r="G32" s="1">
+        <v>109.24794386984327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2015</v>
+      </c>
+      <c r="D33">
+        <v>4663491</v>
+      </c>
+      <c r="E33">
+        <v>8834719.276797995</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-7.1925516556126556</v>
+      </c>
+      <c r="G33" s="1">
+        <v>101.39022907431007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+      <c r="D34">
+        <v>4164374</v>
+      </c>
+      <c r="E34">
+        <v>7827709.8273154171</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-11.398318587521128</v>
+      </c>
+      <c r="G34" s="1">
+        <v>89.833447747802737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>2017</v>
+      </c>
+      <c r="D35">
+        <v>4262207</v>
+      </c>
+      <c r="E35">
+        <v>7713166.4133475646</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1.4633068482960865</v>
+      </c>
+      <c r="G35" s="1">
+        <v>88.518908754848653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>2018</v>
+      </c>
+      <c r="D36">
+        <v>4997596</v>
+      </c>
+      <c r="E36">
+        <v>8300590.1564936005</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7.6158572454693152</v>
+      </c>
+      <c r="G36" s="1">
+        <v>95.260382480865161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2019</v>
+      </c>
+      <c r="D37">
+        <v>4963344</v>
+      </c>
+      <c r="E37">
+        <v>7864134.8279838292</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-5.258124064447756</v>
+      </c>
+      <c r="G37" s="1">
+        <v>90.251473385753812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>2020</v>
+      </c>
+      <c r="D38">
+        <v>4920519</v>
+      </c>
+      <c r="E38">
+        <v>6599351.0669863168</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-16.082935868506365</v>
+      </c>
+      <c r="G38" s="1">
+        <v>75.736386800740931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39">
+        <v>5541712</v>
+      </c>
+      <c r="E39">
+        <v>5748312.4309904641</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-12.895792743217271</v>
+      </c>
+      <c r="G39" s="1">
+        <v>65.969579327716019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>2022</v>
+      </c>
+      <c r="D40">
+        <v>6674044</v>
+      </c>
+      <c r="E40">
+        <v>6674044</v>
+      </c>
+      <c r="F40" s="1">
+        <v>16.104405947364754</v>
+      </c>
+      <c r="G40" s="1">
+        <v>76.593588184420227</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g4.1.xlsx
+++ b/Data/g4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D39B2F-1754-45B7-AB48-9DFBCB19A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248EBA23-154D-4561-97B5-665D6E57545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,13 +46,13 @@
     <t>Sergipe</t>
   </si>
   <si>
-    <t>VBP</t>
+    <t>Custo das operações industriais</t>
   </si>
   <si>
-    <t>Custo das Operações</t>
+    <t>Valor bruto da produção industrial</t>
   </si>
   <si>
-    <t>Valor da Transformação</t>
+    <t>Valor da transformação industrial</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2010</v>
@@ -455,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2011</v>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2012</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2013</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2015</v>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2017</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2018</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>2010</v>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2011</v>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2012</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>2013</v>
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>2014</v>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>2016</v>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -913,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2019</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -1005,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>2022</v>
